--- a/biology/Mycologie/Lactarius_hepaticus/Lactarius_hepaticus.xlsx
+++ b/biology/Mycologie/Lactarius_hepaticus/Lactarius_hepaticus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lactaire hépatique
 Lactarius hepaticus, le lactaire hépatique, est un champignon de la famille des Russulaceae. Ce lactaire pousse en Europe.  
@@ -512,7 +524,9 @@
           <t>Description morphologique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Chapeau : convexe s'aplatissant rapidement avec légère dépression centrale.
 Lames : adnées à légèrement décurrentes de couleur ocre pâle.
@@ -544,7 +558,9 @@
           <t>Comestibilité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Non comestible. 
 </t>
@@ -575,7 +591,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">On trouve ce champignon dans les forêts d'Europe, il se développe généralement en groupes.
 </t>
